--- a/TBCS00/TBCS00.xlsx
+++ b/TBCS00/TBCS00.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,7 +472,7 @@
         <v>Type</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TKR</v>
+        <v>TRK</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>Name</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>TBCS00_TKR_1.0.1_DHIS2.35.12-en</v>
+        <v>TBCS00_1.0.1_DHIS2.35.12-en</v>
       </c>
     </row>
   </sheetData>
@@ -5790,8 +5790,8 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="208.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="287.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="183.7109375" customWidth="1"/>
     <col min="8" max="8" width="4153.7109375" customWidth="1"/>
@@ -6324,10 +6324,10 @@
         <v>2.09.01 - N/P and relapse - 0-4y M</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v/>
+        <v>NEWREL</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6362,7 +6362,7 @@
         <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6397,7 +6397,7 @@
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6432,7 +6432,7 @@
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F16" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6467,7 +6467,7 @@
         <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6502,7 +6502,7 @@
         <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6537,7 +6537,7 @@
         <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F19" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6572,7 +6572,7 @@
         <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F20" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6607,7 +6607,7 @@
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6642,7 +6642,7 @@
         <v/>
       </c>
       <c r="E22" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6677,7 +6677,7 @@
         <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F23" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6712,7 +6712,7 @@
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F24" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6747,7 +6747,7 @@
         <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6782,7 +6782,7 @@
         <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F26" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6817,7 +6817,7 @@
         <v/>
       </c>
       <c r="E27" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6852,7 +6852,7 @@
         <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F28" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6887,7 +6887,7 @@
         <v/>
       </c>
       <c r="E29" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6922,7 +6922,7 @@
         <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -6957,7 +6957,7 @@
         <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F31" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -6992,7 +6992,7 @@
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -7027,7 +7027,7 @@
         <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v/>
+        <v>Number of new and relapse cases tested using a WHO-recommended rapid diagnostic (for example Xpert MTB/RIF) as the initial diagnostic test (regardless of test result). Pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant.</v>
       </c>
       <c r="F33" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -7065,7 +7065,7 @@
         <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F34" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -7154,7 +7154,7 @@
         <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v/>
+        <v>Confirmed MDR-TB cases on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F35" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -7226,7 +7226,7 @@
         <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -7301,7 +7301,7 @@
         <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v/>
+        <v>Not laboratory-confirmed RR/MDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F37" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -7349,7 +7349,7 @@
         <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v/>
+        <v>Laboratory-confirmed RR-TB or MDR-TB patients who started treatment for MDR-TB (Second-line treatment)</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -7439,7 +7439,7 @@
         <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v/>
+        <v>RR/MDR-TB cases (Age &lt;15) started on second-line treatment regimen</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -7530,7 +7530,7 @@
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v/>
+        <v>RR/MDR-TB cases (Age &lt;15) started on second-line treatment regimen</v>
       </c>
       <c r="F40" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -7621,7 +7621,7 @@
         <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v/>
+        <v>Laboratory-confirmed XDR-TB patients who started treatment for XDR-TB (Second-line treatment)</v>
       </c>
       <c r="F41" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10035,7 +10035,7 @@
         <v/>
       </c>
       <c r="E91" s="5" t="str">
-        <v/>
+        <v>RR/MDR-TB cases started on second-line treatment regimen</v>
       </c>
       <c r="F91" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10125,7 +10125,7 @@
         <v/>
       </c>
       <c r="E92" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F92" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -10216,7 +10216,7 @@
         <v/>
       </c>
       <c r="E93" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen - Treatment failed</v>
       </c>
       <c r="F93" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10307,7 +10307,7 @@
         <v/>
       </c>
       <c r="E94" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen - Died</v>
       </c>
       <c r="F94" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -10398,7 +10398,7 @@
         <v/>
       </c>
       <c r="E95" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen - Lost to follow-up</v>
       </c>
       <c r="F95" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10489,7 +10489,7 @@
         <v/>
       </c>
       <c r="E96" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen - Not evaluated</v>
       </c>
       <c r="F96" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -10580,7 +10580,7 @@
         <v/>
       </c>
       <c r="E97" s="5" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F97" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10657,7 +10657,7 @@
         <v/>
       </c>
       <c r="E98" s="4" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F98" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -10735,7 +10735,7 @@
         <v/>
       </c>
       <c r="E99" s="5" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen - Treatment failed</v>
       </c>
       <c r="F99" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10813,7 +10813,7 @@
         <v/>
       </c>
       <c r="E100" s="4" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen - Died</v>
       </c>
       <c r="F100" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -10891,7 +10891,7 @@
         <v/>
       </c>
       <c r="E101" s="5" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen - Lost to follow-up</v>
       </c>
       <c r="F101" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -10969,7 +10969,7 @@
         <v/>
       </c>
       <c r="E102" s="4" t="str">
-        <v/>
+        <v>Confirmed XDR-TB cases on second-line treatment regimen - Not evaluated</v>
       </c>
       <c r="F102" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -11082,7 +11082,7 @@
         <v/>
       </c>
       <c r="E104" s="4" t="str">
-        <v/>
+        <v>Patients started treatment for MDR-TB (Second-line treatment)</v>
       </c>
       <c r="F104" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -11114,10 +11114,10 @@
         <v>LabConf RR/MDR on MDR Tx</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v/>
+        <v>TB_LAB_CONF_RRMDR_TX</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F105" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -11204,10 +11204,10 @@
         <v>LabConf - RR/MDR</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v/>
+        <v>TB_LAB_CONF_RRMDR</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases excluding XDR cases</v>
       </c>
       <c r="F106" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -11761,10 +11761,10 @@
         <v>CURED - BC - N/P and relapse</v>
       </c>
       <c r="D119" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_CURED</v>
       </c>
       <c r="E119" s="5" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment that were cured</v>
       </c>
       <c r="F119" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -11806,10 +11806,10 @@
         <v>CURED - RR/MDR - 2nd line</v>
       </c>
       <c r="D120" s="4" t="str">
-        <v/>
+        <v>TBCSAG_MDR_CURED</v>
       </c>
       <c r="E120" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, that are cured.</v>
       </c>
       <c r="F120" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -11895,10 +11895,10 @@
         <v>CURED - HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D121" s="5" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_CURED</v>
       </c>
       <c r="E121" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, that are cured.</v>
       </c>
       <c r="F121" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -11983,10 +11983,10 @@
         <v>CURED - XDR - 2nd line</v>
       </c>
       <c r="D122" s="4" t="str">
-        <v/>
+        <v>TBCSAG_XDR_CURED</v>
       </c>
       <c r="E122" s="4" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen that are cured.</v>
       </c>
       <c r="F122" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12058,10 +12058,10 @@
         <v>CURED - PT/P excl relapse</v>
       </c>
       <c r="D123" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_CURED</v>
       </c>
       <c r="E123" s="5" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment that were cured.</v>
       </c>
       <c r="F123" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12093,10 +12093,10 @@
         <v>CURED - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D124" s="4" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_CURED</v>
       </c>
       <c r="E124" s="4" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that were cured.</v>
       </c>
       <c r="F124" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12128,10 +12128,10 @@
         <v>DIED - BC - N/P and relapse</v>
       </c>
       <c r="D125" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_DIED</v>
       </c>
       <c r="E125" s="5" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment that died.</v>
       </c>
       <c r="F125" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12173,10 +12173,10 @@
         <v>DIED - ClinDx - N/P and relapse</v>
       </c>
       <c r="D126" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_DIED</v>
       </c>
       <c r="E126" s="4" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases except those moved to or started directly on second-line treatment who died.</v>
       </c>
       <c r="F126" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12218,10 +12218,10 @@
         <v>DIED - RR/MDR - 2nd line</v>
       </c>
       <c r="D127" s="5" t="str">
-        <v/>
+        <v>TBCSAG_MDR_DIED</v>
       </c>
       <c r="E127" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, that died.</v>
       </c>
       <c r="F127" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12307,10 +12307,10 @@
         <v>DIED - HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D128" s="4" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_DIED</v>
       </c>
       <c r="E128" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, that died</v>
       </c>
       <c r="F128" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12395,10 +12395,10 @@
         <v>DIED - XDR - 2nd line</v>
       </c>
       <c r="D129" s="5" t="str">
-        <v/>
+        <v>TBCSAG_XDR_DIED</v>
       </c>
       <c r="E129" s="5" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen that tied.</v>
       </c>
       <c r="F129" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12470,10 +12470,10 @@
         <v>DIED - PT/P excl relapse</v>
       </c>
       <c r="D130" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_DIED</v>
       </c>
       <c r="E130" s="4" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment that died.</v>
       </c>
       <c r="F130" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12505,10 +12505,10 @@
         <v>DIED - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D131" s="5" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_DIED</v>
       </c>
       <c r="E131" s="5" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that died.</v>
       </c>
       <c r="F131" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12540,10 +12540,10 @@
         <v>LabConf MDR excl XDR</v>
       </c>
       <c r="D132" s="4" t="str">
-        <v/>
+        <v>TBCSAG_CONF_MDR</v>
       </c>
       <c r="E132" s="4" t="str">
-        <v/>
+        <v>MDR-TB cases. Cases resistant to at least rifampicin and isoniazid, but not both fluroquinolones and second-line injectables (excluding streptomycin) i.e. excluding XDR cases.</v>
       </c>
       <c r="F132" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12616,10 +12616,10 @@
         <v>LabConf RR/MDR</v>
       </c>
       <c r="D133" s="5" t="str">
-        <v/>
+        <v>TBCSAG_CONF_RRMDR</v>
       </c>
       <c r="E133" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases excluding XDR cases</v>
       </c>
       <c r="F133" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12705,10 +12705,10 @@
         <v>LTFU - BC - N/P and relapse</v>
       </c>
       <c r="D134" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_LOST</v>
       </c>
       <c r="E134" s="4" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment that are lost to follow-up.</v>
       </c>
       <c r="F134" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12750,10 +12750,10 @@
         <v>LTFU - ClinDx - N/P and relapse</v>
       </c>
       <c r="D135" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_LOST</v>
       </c>
       <c r="E135" s="5" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases except those moved to or started directly on second-line treatment that were lost to follow-up.</v>
       </c>
       <c r="F135" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12795,10 +12795,10 @@
         <v>LTFU - RR/MDR - 2nd line</v>
       </c>
       <c r="D136" s="4" t="str">
-        <v/>
+        <v>TBCSAG_MDR_LOST</v>
       </c>
       <c r="E136" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, that are lost to follow-up.</v>
       </c>
       <c r="F136" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -12883,10 +12883,10 @@
         <v>LTFU - HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D137" s="5" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_LOST</v>
       </c>
       <c r="E137" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, that are lost to follow-up</v>
       </c>
       <c r="F137" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -12971,10 +12971,10 @@
         <v>LTFU - XDR - 2nd line</v>
       </c>
       <c r="D138" s="4" t="str">
-        <v/>
+        <v>TBCSAG_XDR_LOST</v>
       </c>
       <c r="E138" s="4" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen that are lost to follow-up.</v>
       </c>
       <c r="F138" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13046,10 +13046,10 @@
         <v>LTFU - PT/P excl relapse</v>
       </c>
       <c r="D139" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_LOST</v>
       </c>
       <c r="E139" s="5" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment that were lost to follow-up.</v>
       </c>
       <c r="F139" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13081,10 +13081,10 @@
         <v>LTFU - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D140" s="4" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_LOST</v>
       </c>
       <c r="E140" s="4" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that were lost to follow-up.</v>
       </c>
       <c r="F140" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13116,10 +13116,10 @@
         <v>N/P and relapse - 0-4y F</v>
       </c>
       <c r="D141" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_0004YF</v>
       </c>
       <c r="E141" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F141" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13151,10 +13151,10 @@
         <v>N/P and relapse - 0-4y M</v>
       </c>
       <c r="D142" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_0004YM</v>
       </c>
       <c r="E142" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F142" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13186,10 +13186,10 @@
         <v>N/P and relapse - 15-24y F</v>
       </c>
       <c r="D143" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_1524YF</v>
       </c>
       <c r="E143" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F143" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13221,10 +13221,10 @@
         <v>N/P and relapse - 15-24y M</v>
       </c>
       <c r="D144" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_1524YM</v>
       </c>
       <c r="E144" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F144" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13256,10 +13256,10 @@
         <v>N/P and relapse - 25-34y F</v>
       </c>
       <c r="D145" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_2534YF</v>
       </c>
       <c r="E145" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F145" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13291,10 +13291,10 @@
         <v>N/P and relapse - 25-34y M</v>
       </c>
       <c r="D146" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_2534YM</v>
       </c>
       <c r="E146" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F146" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13326,10 +13326,10 @@
         <v>N/P and relapse - 35-44y F</v>
       </c>
       <c r="D147" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_3544YF</v>
       </c>
       <c r="E147" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F147" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13361,10 +13361,10 @@
         <v>N/P and relapse - 35-44y M</v>
       </c>
       <c r="D148" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_3544YM</v>
       </c>
       <c r="E148" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F148" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13396,10 +13396,10 @@
         <v>N/P and relapse - 45-54y F</v>
       </c>
       <c r="D149" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_4554YF</v>
       </c>
       <c r="E149" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F149" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13431,10 +13431,10 @@
         <v>N/P and relapse - 45-54y M</v>
       </c>
       <c r="D150" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_4554YM</v>
       </c>
       <c r="E150" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F150" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13466,10 +13466,10 @@
         <v>N/P and relapse - 5-14y F</v>
       </c>
       <c r="D151" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_0514YF</v>
       </c>
       <c r="E151" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F151" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13501,10 +13501,10 @@
         <v>N/P and relapse - 5-14y M</v>
       </c>
       <c r="D152" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_0514YM</v>
       </c>
       <c r="E152" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F152" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13536,10 +13536,10 @@
         <v>N/P and relapse - 55-64y F</v>
       </c>
       <c r="D153" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_5564YF</v>
       </c>
       <c r="E153" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F153" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13571,10 +13571,10 @@
         <v>N/P and relapse - 55-64y M</v>
       </c>
       <c r="D154" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_5564YM</v>
       </c>
       <c r="E154" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F154" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13606,10 +13606,10 @@
         <v>N/P and relapse - 65+y F</v>
       </c>
       <c r="D155" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_65PLUSYF</v>
       </c>
       <c r="E155" s="5" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F155" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13641,10 +13641,10 @@
         <v>N/P and relapse - 65+y M</v>
       </c>
       <c r="D156" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_65PLUSYM</v>
       </c>
       <c r="E156" s="4" t="str">
-        <v/>
+        <v>New and relapse TB cases (pulmonary or extrapulmonary, bacteriologically confirmed or clinically diagnosed, drug-susceptible or drug-resistant)</v>
       </c>
       <c r="F156" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13676,7 +13676,7 @@
         <v>N/P - EPTB</v>
       </c>
       <c r="D157" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEW_EP</v>
       </c>
       <c r="E157" s="5" t="str">
         <v/>
@@ -13713,7 +13713,7 @@
         <v>N/P - Rif test.</v>
       </c>
       <c r="D158" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RDST_NEW</v>
       </c>
       <c r="E158" s="4" t="str">
         <v/>
@@ -13748,7 +13748,7 @@
         <v>N/P - PBC</v>
       </c>
       <c r="D159" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEW_LABCONF</v>
       </c>
       <c r="E159" s="5" t="str">
         <v/>
@@ -13796,7 +13796,7 @@
         <v>N/P - PTB - ClinDx</v>
       </c>
       <c r="D160" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEW_CLINDX</v>
       </c>
       <c r="E160" s="4" t="str">
         <v/>
@@ -13843,10 +13843,10 @@
         <v>NE - BC - N/P and relapse</v>
       </c>
       <c r="D161" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_NEVAL</v>
       </c>
       <c r="E161" s="5" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment that were not evaluated.</v>
       </c>
       <c r="F161" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -13888,10 +13888,10 @@
         <v>NE - ClinDx - N/P and relapse</v>
       </c>
       <c r="D162" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_NEVAL</v>
       </c>
       <c r="E162" s="4" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases except those moved to or started directly on second-line treatment that were not evaluated.</v>
       </c>
       <c r="F162" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -13933,10 +13933,10 @@
         <v>NE - RR/MDR - 2nd line</v>
       </c>
       <c r="D163" s="5" t="str">
-        <v/>
+        <v>TBCSAG_MDR_NEVAL</v>
       </c>
       <c r="E163" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, that are not evaluated.</v>
       </c>
       <c r="F163" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14021,10 +14021,10 @@
         <v>NE - HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D164" s="4" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_NEVAL</v>
       </c>
       <c r="E164" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, that are not evaluated</v>
       </c>
       <c r="F164" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14109,10 +14109,10 @@
         <v>NE - XDR - 2nd line</v>
       </c>
       <c r="D165" s="5" t="str">
-        <v/>
+        <v>TBCSAG_XDR_NEVAL</v>
       </c>
       <c r="E165" s="5" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen that are not evaluated.</v>
       </c>
       <c r="F165" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14184,10 +14184,10 @@
         <v>NE - PT/P excl relapse</v>
       </c>
       <c r="D166" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_NEVAL</v>
       </c>
       <c r="E166" s="4" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment that were not evaluated.</v>
       </c>
       <c r="F166" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14219,10 +14219,10 @@
         <v>NE - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D167" s="5" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_NEVAL</v>
       </c>
       <c r="E167" s="5" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that were not evaluated.</v>
       </c>
       <c r="F167" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14254,10 +14254,10 @@
         <v>UnC RR/MDR - 2nd line</v>
       </c>
       <c r="D168" s="4" t="str">
-        <v/>
+        <v>TBCSAG_UNCONF_RRMDR_TX</v>
       </c>
       <c r="E168" s="4" t="str">
-        <v/>
+        <v>Not laboratory-confirmed RR/MDR-TB cases on second-line treatment regimen</v>
       </c>
       <c r="F168" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14336,10 +14336,10 @@
         <v>BC - N/P and relapse - cohort</v>
       </c>
       <c r="D169" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_COH</v>
       </c>
       <c r="E169" s="5" t="str">
-        <v/>
+        <v>All bacteriologically confirmed new and relapse TB cases registered except those moved to or started directly on second-line treatment.</v>
       </c>
       <c r="F169" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14382,10 +14382,10 @@
         <v>ClinDx - N/P and relapse - cohort</v>
       </c>
       <c r="D170" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_COH</v>
       </c>
       <c r="E170" s="4" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases registered except those moved to or started directly on second-line treatment.</v>
       </c>
       <c r="F170" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14428,10 +14428,10 @@
         <v>RR and MDR - 2nd line</v>
       </c>
       <c r="D171" s="5" t="str">
-        <v/>
+        <v>TBCSAG_MDR_COH</v>
       </c>
       <c r="E171" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F171" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14519,10 +14519,10 @@
         <v>HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D172" s="4" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_COH</v>
       </c>
       <c r="E172" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F172" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14609,10 +14609,10 @@
         <v>XDR - 2nd line - cohort</v>
       </c>
       <c r="D173" s="5" t="str">
-        <v/>
+        <v>TBCSAG_XDR_COH</v>
       </c>
       <c r="E173" s="5" t="str">
-        <v/>
+        <v>TB cases resistant to at least rifampicin, isoniazid, fluoroquinolones and second-line injectables (excluding Streptomycin), that are on 2nd line regimen</v>
       </c>
       <c r="F173" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14682,10 +14682,10 @@
         <v>PT/P excl relapse - cohort</v>
       </c>
       <c r="D174" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_COH</v>
       </c>
       <c r="E174" s="4" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases registered except those moved to or started directly on second-line treatment.</v>
       </c>
       <c r="F174" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14717,10 +14717,10 @@
         <v>TB/HIV - N/P and relapse - cohort</v>
       </c>
       <c r="D175" s="5" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_COH</v>
       </c>
       <c r="E175" s="5" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment.</v>
       </c>
       <c r="F175" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14755,7 +14755,7 @@
         <v/>
       </c>
       <c r="E176" s="4" t="str">
-        <v/>
+        <v>Age of the patient</v>
       </c>
       <c r="F176" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -14784,10 +14784,10 @@
         <v>LabConf RR/MDR - 2nd line</v>
       </c>
       <c r="D177" s="5" t="str">
-        <v/>
+        <v>TBCSAG_CONF_RRMDR_TX</v>
       </c>
       <c r="E177" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases.</v>
       </c>
       <c r="F177" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -14874,7 +14874,7 @@
         <v>Presumptive TB PTs being tested</v>
       </c>
       <c r="D178" s="4" t="str">
-        <v/>
+        <v>TBCSAG_PRESUMPTIVE_TEST</v>
       </c>
       <c r="E178" s="4" t="str">
         <v/>
@@ -14918,7 +14918,7 @@
         <v>Presumptive TB PTs with test results</v>
       </c>
       <c r="D179" s="5" t="str">
-        <v/>
+        <v>TBCSAG_PRESUMPTIVE_TESTPOS</v>
       </c>
       <c r="E179" s="5" t="str">
         <v/>
@@ -14963,7 +14963,7 @@
         <v>PT/P excl relapse - PBC</v>
       </c>
       <c r="D180" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_LABCONF</v>
       </c>
       <c r="E180" s="4" t="str">
         <v/>
@@ -15011,7 +15011,7 @@
         <v>PT/P - EPTB</v>
       </c>
       <c r="D181" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_EP</v>
       </c>
       <c r="E181" s="5" t="str">
         <v/>
@@ -15046,7 +15046,7 @@
         <v>PT/P - Rif test.</v>
       </c>
       <c r="D182" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RDST_RET</v>
       </c>
       <c r="E182" s="4" t="str">
         <v/>
@@ -15081,7 +15081,7 @@
         <v>PT/P - PTB - ClinDx</v>
       </c>
       <c r="D183" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_CLINDX</v>
       </c>
       <c r="E183" s="5" t="str">
         <v/>
@@ -15126,7 +15126,7 @@
         <v>Relapse - EPTB</v>
       </c>
       <c r="D184" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_REL_EP</v>
       </c>
       <c r="E184" s="4" t="str">
         <v/>
@@ -15163,7 +15163,7 @@
         <v>Relapse - PBC</v>
       </c>
       <c r="D185" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_REL_LABCONF</v>
       </c>
       <c r="E185" s="5" t="str">
         <v/>
@@ -15210,7 +15210,7 @@
         <v>Relapse - PTB - ClinDX</v>
       </c>
       <c r="D186" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_REL_CLINDX</v>
       </c>
       <c r="E186" s="4" t="str">
         <v/>
@@ -15257,7 +15257,7 @@
         <v>HIV+ on ART</v>
       </c>
       <c r="D187" s="5" t="str">
-        <v/>
+        <v>TBCSAG_HIV_ART</v>
       </c>
       <c r="E187" s="5" t="str">
         <v/>
@@ -15292,7 +15292,7 @@
         <v>HIV+</v>
       </c>
       <c r="D188" s="4" t="str">
-        <v/>
+        <v>TBCSAG_HIVTEST_POS</v>
       </c>
       <c r="E188" s="4" t="str">
         <v/>
@@ -15327,7 +15327,7 @@
         <v>N/P and relapse - HIV test.</v>
       </c>
       <c r="D189" s="5" t="str">
-        <v/>
+        <v>TBCSAG_HIVTEST</v>
       </c>
       <c r="E189" s="5" t="str">
         <v/>
@@ -15364,10 +15364,10 @@
         <v>CMPL - BC - N/P and relapse</v>
       </c>
       <c r="D190" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_CMPLT</v>
       </c>
       <c r="E190" s="4" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment that completed treatment.</v>
       </c>
       <c r="F190" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -15409,10 +15409,10 @@
         <v>CMPL - ClinDx - N/P and relapse</v>
       </c>
       <c r="D191" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_CMPLT</v>
       </c>
       <c r="E191" s="5" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases except those moved to or started directly on second-line treatment that completed treatment.</v>
       </c>
       <c r="F191" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -15454,10 +15454,10 @@
         <v>CMPL - RR/MDR - 2nd line</v>
       </c>
       <c r="D192" s="4" t="str">
-        <v/>
+        <v>TBCSAG_MDR_CMPLT</v>
       </c>
       <c r="E192" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, that completed treatment.</v>
       </c>
       <c r="F192" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -15542,10 +15542,10 @@
         <v>CMPL - RR/MDR - HIV+ - 2nd line</v>
       </c>
       <c r="D193" s="5" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_CMPLT</v>
       </c>
       <c r="E193" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, that complete treatment.</v>
       </c>
       <c r="F193" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -15630,10 +15630,10 @@
         <v>CMPL - XDR - 2nd line</v>
       </c>
       <c r="D194" s="4" t="str">
-        <v/>
+        <v>TBCSAG_XDR_CMPLT</v>
       </c>
       <c r="E194" s="4" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen that complete treatment.</v>
       </c>
       <c r="F194" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -15705,10 +15705,10 @@
         <v>CMPL - PT/P excl relapse</v>
       </c>
       <c r="D195" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_CMPLT</v>
       </c>
       <c r="E195" s="5" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment that completed treatment.</v>
       </c>
       <c r="F195" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -15740,10 +15740,10 @@
         <v>CMPL - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D196" s="4" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_CMPLT</v>
       </c>
       <c r="E196" s="4" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that completed treatment.</v>
       </c>
       <c r="F196" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -15775,10 +15775,10 @@
         <v>FAIL - BC - N/P and relapse</v>
       </c>
       <c r="D197" s="5" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_LABCONF_FAILED</v>
       </c>
       <c r="E197" s="5" t="str">
-        <v/>
+        <v>Bacteriologically confirmed new and relapse TB cases except those moved to or started directly on second-line treatment where treatment failed.</v>
       </c>
       <c r="F197" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -15820,10 +15820,10 @@
         <v>FAIL - ClinDx - N/P and relapse</v>
       </c>
       <c r="D198" s="4" t="str">
-        <v/>
+        <v>TBCSAG_NEWREL_CLINDX_FAILED</v>
       </c>
       <c r="E198" s="4" t="str">
-        <v/>
+        <v>All clinically diagnosed new and relapse TB cases except those moved to or started directly on second-line treatment where treatment failed.</v>
       </c>
       <c r="F198" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -15865,10 +15865,10 @@
         <v>FAIL - RR/MDR - 2nd line</v>
       </c>
       <c r="D199" s="5" t="str">
-        <v/>
+        <v>TBCSAG_MDR_FAILED</v>
       </c>
       <c r="E199" s="5" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases on second-line treatment regimen, excluding XDR cases, where treatment failed.</v>
       </c>
       <c r="F199" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -15953,10 +15953,10 @@
         <v>FAIL - HIV+ RR/MDR - 2nd line</v>
       </c>
       <c r="D200" s="4" t="str">
-        <v/>
+        <v>TBCSAG_HIVMDR_FAILED</v>
       </c>
       <c r="E200" s="4" t="str">
-        <v/>
+        <v>Confirmed RR/MDR-TB cases that are HIV positive, on second-line treatment regimen, excluding XDR cases, where treatment failed.</v>
       </c>
       <c r="F200" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16041,10 +16041,10 @@
         <v>FAIL - XDR - 2nd line</v>
       </c>
       <c r="D201" s="5" t="str">
-        <v/>
+        <v>TBCSAG_XDR_FAILED</v>
       </c>
       <c r="E201" s="5" t="str">
-        <v/>
+        <v>XDR-TB cases on 2nd line regimen where treatment failed.</v>
       </c>
       <c r="F201" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16116,10 +16116,10 @@
         <v>FAIL - PT/P excl relapse</v>
       </c>
       <c r="D202" s="4" t="str">
-        <v/>
+        <v>TBCSAG_RET_NREL_FAILED</v>
       </c>
       <c r="E202" s="4" t="str">
-        <v/>
+        <v>Previously treated (excluding relapse) TB cases except those moved to or started directly on second-line treatment where treatment failed.</v>
       </c>
       <c r="F202" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16151,10 +16151,10 @@
         <v>FAIL - TB/HIV - N/P and relapse</v>
       </c>
       <c r="D203" s="5" t="str">
-        <v/>
+        <v>TBCSAG_TBHIV_FAILED</v>
       </c>
       <c r="E203" s="5" t="str">
-        <v/>
+        <v>All new and relapse TB/HIV cases registered except those moved to or started directly on second-line treatment that failed treatment.</v>
       </c>
       <c r="F203" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16186,7 +16186,7 @@
         <v>UnkHx - EPTB</v>
       </c>
       <c r="D204" s="4" t="str">
-        <v/>
+        <v>TBCSAG_OTH_EP</v>
       </c>
       <c r="E204" s="4" t="str">
         <v/>
@@ -16221,7 +16221,7 @@
         <v>UnkHx - Rif test.</v>
       </c>
       <c r="D205" s="5" t="str">
-        <v/>
+        <v>TBCSAG_RDST_UNK</v>
       </c>
       <c r="E205" s="5" t="str">
         <v/>
@@ -16256,7 +16256,7 @@
         <v>UnkHx - PBC</v>
       </c>
       <c r="D206" s="4" t="str">
-        <v/>
+        <v>TBCSAG_OTH_LABCONF</v>
       </c>
       <c r="E206" s="4" t="str">
         <v/>
@@ -16304,7 +16304,7 @@
         <v>UnkHx - PTB - ClinDx</v>
       </c>
       <c r="D207" s="5" t="str">
-        <v/>
+        <v>TBCSAG_OTH_CLINDX</v>
       </c>
       <c r="E207" s="5" t="str">
         <v/>
@@ -16401,7 +16401,7 @@
         <v/>
       </c>
       <c r="E209" s="5" t="str">
-        <v/>
+        <v>TB cases that have been confirmed by positive smear result.</v>
       </c>
       <c r="F209" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16436,7 +16436,7 @@
         <v/>
       </c>
       <c r="E210" s="4" t="str">
-        <v/>
+        <v>TB cases that have been confirmed by positive Xpert/Xpert Ultra MTB result.</v>
       </c>
       <c r="F210" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16471,7 +16471,7 @@
         <v/>
       </c>
       <c r="E211" s="5" t="str">
-        <v/>
+        <v>All TB cases, i.e. all cases enrolled in the TB program except those that were denotified (i.e. "Not TB" indicated).</v>
       </c>
       <c r="F211" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16506,7 +16506,7 @@
         <v/>
       </c>
       <c r="E212" s="4" t="str">
-        <v/>
+        <v>Enrolled cases that have not started on treatment</v>
       </c>
       <c r="F212" s="4" t="str">
         <v>EVENT</v>
@@ -16541,7 +16541,7 @@
         <v/>
       </c>
       <c r="E213" s="5" t="str">
-        <v/>
+        <v>TB lab confirmed cases that have a valid (resistant or sensitive) result for rifampicin resistance, (by Xpert, DST, Truenat or LPA)</v>
       </c>
       <c r="F213" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16595,7 +16595,7 @@
         <v/>
       </c>
       <c r="E214" s="4" t="str">
-        <v/>
+        <v>TB cases resistant to at least rifampicin, but not isoniazid, i.e. excluding MDR and XDR cases</v>
       </c>
       <c r="F214" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16695,7 +16695,7 @@
         <v/>
       </c>
       <c r="E216" s="4" t="str">
-        <v/>
+        <v>New TB cases that have been confirmed by positive Xpert/Xpert Ultra MTB result.</v>
       </c>
       <c r="F216" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16730,7 +16730,7 @@
         <v/>
       </c>
       <c r="E217" s="5" t="str">
-        <v/>
+        <v>TB patients that have not started treatment</v>
       </c>
       <c r="F217" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16762,7 +16762,7 @@
         <v/>
       </c>
       <c r="E218" s="4" t="str">
-        <v/>
+        <v>TB patients with no outcome record</v>
       </c>
       <c r="F218" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16794,7 +16794,7 @@
         <v/>
       </c>
       <c r="E219" s="5" t="str">
-        <v/>
+        <v>Previously treated TB cases that have been confirmed by positive Xpert/Xpert Ultra MTB result.</v>
       </c>
       <c r="F219" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16829,7 +16829,7 @@
         <v/>
       </c>
       <c r="E220" s="4" t="str">
-        <v/>
+        <v>TB cases where rifampicin resistance is detected by Xpert/Xpert Ultra.</v>
       </c>
       <c r="F220" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16864,7 +16864,7 @@
         <v/>
       </c>
       <c r="E221" s="5" t="str">
-        <v/>
+        <v>New TB cases that where rifampicin resistance is detected by Xpert/Xpert Ultra.</v>
       </c>
       <c r="F221" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16899,7 +16899,7 @@
         <v/>
       </c>
       <c r="E222" s="4" t="str">
-        <v/>
+        <v>Previously treated TB cases that where rifampicin resistance is detected by Xpert/Xpert Ultra</v>
       </c>
       <c r="F222" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -16934,7 +16934,7 @@
         <v/>
       </c>
       <c r="E223" s="5" t="str">
-        <v/>
+        <v>TB cases that are smear negative, but confirmed by positive Xpert/Xpert Ultra MTB result.</v>
       </c>
       <c r="F223" s="5" t="str">
         <v>ENROLLMENT</v>
@@ -16970,7 +16970,7 @@
         <v/>
       </c>
       <c r="E224" s="4" t="str">
-        <v/>
+        <v>TB cases that are smear positive and confirmed by positive Xpert/Xpert Ultra MTB result.</v>
       </c>
       <c r="F224" s="4" t="str">
         <v>ENROLLMENT</v>
@@ -17002,7 +17002,7 @@
         <v>TB/HIV - HIV+</v>
       </c>
       <c r="D225" s="5" t="str">
-        <v/>
+        <v>TB_HIV_POS</v>
       </c>
       <c r="E225" s="5" t="str">
         <v/>
@@ -17072,7 +17072,7 @@
         <v>TB/HIV - ART</v>
       </c>
       <c r="D227" s="5" t="str">
-        <v/>
+        <v>TB_HIV_POS_ART</v>
       </c>
       <c r="E227" s="5" t="str">
         <v/>
